--- a/tests/databooks/progbook_udt.xlsx
+++ b/tests/databooks/progbook_udt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4597AAE9-9D85-D04F-B094-A32BCDA09FA8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8907B626-5E17-3745-BCF4-102D826918F8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="13240" windowHeight="14380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="13240" windowHeight="14380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
   <si>
     <t>Targeted to (populations)</t>
   </si>
@@ -60,15 +60,6 @@
     <t>Capacity constraints</t>
   </si>
   <si>
-    <t>Unit cost: best</t>
-  </si>
-  <si>
-    <t>Unit cost: low</t>
-  </si>
-  <si>
-    <t>Unit cost: high</t>
-  </si>
-  <si>
     <t>Value for a person covered by this program alone:</t>
   </si>
   <si>
@@ -94,6 +85,15 @@
   </si>
   <si>
     <t>Adherence</t>
+  </si>
+  <si>
+    <t>Coverage interation</t>
+  </si>
+  <si>
+    <t>Impact interaction</t>
+  </si>
+  <si>
+    <t>Unit cost</t>
   </si>
 </sst>
 </file>
@@ -102,7 +102,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0\ _k_r_._-;\-* #,##0\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ _k_r_._-;\-* #,##0\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -197,10 +197,10 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -593,10 +593,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="5">
@@ -614,10 +614,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="5">
@@ -635,10 +635,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="5">
@@ -656,10 +656,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="5">
@@ -701,10 +701,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -775,7 +775,7 @@
         <v>Testing - pharmacies</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="10">
@@ -790,41 +790,43 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="str">
-        <f>'Program targeting'!$C$3</f>
-        <v>Testing - pharmacies</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="5"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="str">
-        <f>'Program targeting'!$C$3</f>
-        <v>Testing - pharmacies</v>
+        <f>'Program targeting'!$C$4</f>
+        <v>Testing - clinics</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="10">
+        <v>100000</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E8" s="11"/>
+      <c r="B8" s="4" t="str">
+        <f>'Program targeting'!$C$4</f>
+        <v>Testing - clinics</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="str">
@@ -832,11 +834,12 @@
         <v>Testing - clinics</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="10">
-        <v>100000</v>
+        <f>20/0.04</f>
+        <v>500</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -846,34 +849,19 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="str">
-        <f>'Program targeting'!$C$4</f>
-        <v>Testing - clinics</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="5"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="str">
-        <f>'Program targeting'!$C$4</f>
-        <v>Testing - clinics</v>
+        <f>'Program targeting'!$C$5</f>
+        <v>Testing - outreach</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="10">
-        <f>20/0.04</f>
-        <v>500</v>
+        <v>30000</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -884,52 +872,55 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="str">
-        <f>'Program targeting'!$C$4</f>
-        <v>Testing - clinics</v>
+        <f>'Program targeting'!$C$5</f>
+        <v>Testing - outreach</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="D12" s="5"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="str">
-        <f>'Program targeting'!$C$4</f>
-        <v>Testing - clinics</v>
+        <f>'Program targeting'!$C$5</f>
+        <v>Testing - outreach</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="10">
+        <f>15/0.15</f>
+        <v>100</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
       <c r="H13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="str">
-        <f>'Program targeting'!$C$5</f>
-        <v>Testing - outreach</v>
+        <f>'Program targeting'!$C$6</f>
+        <v>Adherence</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="10">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -940,8 +931,8 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="str">
-        <f>'Program targeting'!$C$5</f>
-        <v>Testing - outreach</v>
+        <f>'Program targeting'!$C$6</f>
+        <v>Adherence</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>11</v>
@@ -957,16 +948,15 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="str">
-        <f>'Program targeting'!$C$5</f>
-        <v>Testing - outreach</v>
+        <f>'Program targeting'!$C$6</f>
+        <v>Adherence</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="10">
-        <f>15/0.15</f>
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -974,132 +964,6 @@
         <v>10</v>
       </c>
       <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="str">
-        <f>'Program targeting'!$C$5</f>
-        <v>Testing - outreach</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="str">
-        <f>'Program targeting'!$C$5</f>
-        <v>Testing - outreach</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="4" t="str">
-        <f>'Program targeting'!$C$6</f>
-        <v>Adherence</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="10">
-        <v>20000</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="4" t="str">
-        <f>'Program targeting'!$C$6</f>
-        <v>Adherence</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="4" t="str">
-        <f>'Program targeting'!$C$6</f>
-        <v>Adherence</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="10">
-        <v>25</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="4" t="str">
-        <f>'Program targeting'!$C$6</f>
-        <v>Adherence</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="4" t="str">
-        <f>'Program targeting'!$C$6</f>
-        <v>Adherence</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1108,49 +972,55 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="2.6640625" customWidth="1"/>
+    <col min="3" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="F1" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="90" x14ac:dyDescent="0.2">
+      <c r="H1" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="90" x14ac:dyDescent="0.2">
       <c r="D2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="6" t="str">
+        <v>13</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="6" t="str">
         <f>'Program targeting'!$C$3</f>
         <v>Testing - pharmacies</v>
       </c>
-      <c r="G2" s="6" t="str">
+      <c r="I2" s="6" t="str">
         <f>'Program targeting'!$C$4</f>
         <v>Testing - clinics</v>
       </c>
-      <c r="H2" s="6" t="str">
+      <c r="J2" s="6" t="str">
         <f>'Program targeting'!$C$5</f>
         <v>Testing - outreach</v>
       </c>
-      <c r="I2" s="6" t="str">
+      <c r="K2" s="6" t="str">
         <f>'Program targeting'!$C$6</f>
         <v>Adherence</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1158,21 +1028,23 @@
       <c r="D3" s="5">
         <v>0</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="9">
-        <v>1</v>
-      </c>
-      <c r="G3" s="9">
-        <v>1</v>
-      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="9">
         <v>1</v>
       </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -1180,21 +1052,23 @@
       <c r="D4" s="5">
         <v>0</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="9">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="9">
         <v>0.2</v>
       </c>
-      <c r="G4" s="9">
+      <c r="I4" s="9">
         <v>0.9</v>
       </c>
-      <c r="H4" s="9">
+      <c r="J4" s="9">
         <v>0.7</v>
       </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -1202,15 +1076,25 @@
       <c r="D5" s="9">
         <v>0.2</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="9">
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="9">
         <v>0.05</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F5" xr:uid="{ACB0C04B-E39A-5347-B296-6F66082678C8}">
+      <formula1>"Synergistic,best"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5" xr:uid="{5080D0A5-2C98-474F-963B-3F05F551B4E3}">
+      <formula1>"Random,Additive,Nested"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tests/databooks/progbook_udt.xlsx
+++ b/tests/databooks/progbook_udt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8907B626-5E17-3745-BCF4-102D826918F8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{12EF54B5-4BE0-774F-AF4B-1D195138B7C0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="13240" windowHeight="14380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="18780" windowHeight="13540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
   <si>
     <t>Targeted to (populations)</t>
   </si>
@@ -39,15 +39,6 @@
     <t>Adults</t>
   </si>
   <si>
-    <t>undx</t>
-  </si>
-  <si>
-    <t>dx</t>
-  </si>
-  <si>
-    <t>tx</t>
-  </si>
-  <si>
     <t>Assumption</t>
   </si>
   <si>
@@ -66,15 +57,6 @@
     <t>Value if none of the programs listed here are targeting this parameter</t>
   </si>
   <si>
-    <t>diag</t>
-  </si>
-  <si>
-    <t>initiate</t>
-  </si>
-  <si>
-    <t>loss</t>
-  </si>
-  <si>
     <t>Testing - pharmacies</t>
   </si>
   <si>
@@ -94,15 +76,41 @@
   </si>
   <si>
     <t>Unit cost</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>Diagnosis rate</t>
+  </si>
+  <si>
+    <t>Initiation rate</t>
+  </si>
+  <si>
+    <t>Loss-to-follow-up rate</t>
+  </si>
+  <si>
+    <t>Additive</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>Undiagnosed</t>
+  </si>
+  <si>
+    <t>Diagnosed</t>
+  </si>
+  <si>
+    <t>Treated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ _k_r_._-;\-* #,##0\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -197,10 +205,10 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -542,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -579,13 +587,13 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -593,10 +601,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="5">
@@ -614,10 +622,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="5">
@@ -635,10 +643,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="5">
@@ -656,10 +664,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="5">
@@ -701,22 +709,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" customWidth="1"/>
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D2" s="6">
         <v>2015</v>
       </c>
@@ -730,7 +740,7 @@
         <v>2018</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -739,7 +749,7 @@
         <v>Testing - pharmacies</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="10">
@@ -748,7 +758,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I3" s="7"/>
     </row>
@@ -758,14 +768,14 @@
         <v>Testing - pharmacies</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="10"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I4" s="5"/>
     </row>
@@ -775,41 +785,42 @@
         <v>Testing - pharmacies</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="10">
-        <f>5/0.05</f>
-        <v>100</v>
+        <f>5</f>
+        <v>5</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E6" s="11"/>
+      <c r="B6" s="4" t="str">
+        <f>'Program targeting'!$C$3</f>
+        <v>Testing - pharmacies</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="10">
+        <f>E3/E5*5%</f>
+        <v>500</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="str">
-        <f>'Program targeting'!$C$4</f>
-        <v>Testing - clinics</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="10">
-        <v>100000</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="5"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="str">
@@ -817,14 +828,16 @@
         <v>Testing - clinics</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="10"/>
+      <c r="E8" s="10">
+        <v>100000</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I8" s="5"/>
     </row>
@@ -834,58 +847,59 @@
         <v>Testing - clinics</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="10">
-        <f>20/0.04</f>
-        <v>500</v>
-      </c>
+      <c r="E9" s="10"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E10" s="11"/>
+      <c r="B10" s="4" t="str">
+        <f>'Program targeting'!$C$4</f>
+        <v>Testing - clinics</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="10">
+        <f>20</f>
+        <v>20</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="str">
-        <f>'Program targeting'!$C$5</f>
-        <v>Testing - outreach</v>
+        <f>'Program targeting'!$C$4</f>
+        <v>Testing - clinics</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="10">
-        <v>30000</v>
+        <f>E8/E10*4%</f>
+        <v>200</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="str">
-        <f>'Program targeting'!$C$5</f>
-        <v>Testing - outreach</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="5"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="str">
@@ -893,80 +907,159 @@
         <v>Testing - outreach</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D13" s="5"/>
       <c r="E13" s="10">
-        <f>15/0.15</f>
-        <v>100</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+        <v>30000</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E14" s="11"/>
+      <c r="B14" s="4" t="str">
+        <f>'Program targeting'!$C$5</f>
+        <v>Testing - outreach</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="str">
+        <f>'Program targeting'!$C$5</f>
+        <v>Testing - outreach</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="10">
+        <f>15</f>
+        <v>15</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="str">
+        <f>'Program targeting'!$C$5</f>
+        <v>Testing - outreach</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="10">
+        <f>E13/E15*15%</f>
+        <v>300</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="str">
         <f>'Program targeting'!$C$6</f>
         <v>Adherence</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="10">
+      <c r="C18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="10">
         <v>20000</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="str">
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="str">
         <f>'Program targeting'!$C$6</f>
         <v>Adherence</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="str">
+      <c r="C19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="str">
         <f>'Program targeting'!$C$6</f>
         <v>Adherence</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="10">
+      <c r="C20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="10">
         <v>25</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="str">
+        <f>'Program targeting'!$C$6</f>
+        <v>Adherence</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="10">
+        <f>E18/E20</f>
+        <v>800</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="E5:E6 E10:E11 E15:E16 E21" unlockedFormula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -974,32 +1067,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:F5"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="6" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.6640625" customWidth="1"/>
     <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+    <col min="10" max="11" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="H1" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="90" x14ac:dyDescent="0.2">
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H2" s="6" t="str">
         <f>'Program targeting'!$C$3</f>
@@ -1020,7 +1117,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1028,8 +1125,12 @@
       <c r="D3" s="5">
         <v>0</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="9">
         <v>1</v>
@@ -1044,7 +1145,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -1052,8 +1153,12 @@
       <c r="D4" s="5">
         <v>0</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="9">
         <v>0.2</v>
@@ -1068,7 +1173,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>

--- a/tests/databooks/progbook_udt.xlsx
+++ b/tests/databooks/progbook_udt.xlsx
@@ -1,28 +1,77 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\databooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{12EF54B5-4BE0-774F-AF4B-1D195138B7C0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463F77E0-0941-476D-9823-41CBD5778D90}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="18780" windowHeight="13540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="18780" windowHeight="13545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
     <sheet name="Spending data" sheetId="2" r:id="rId2"/>
     <sheet name="Program effects" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{2DEB1A04-04FF-48C2-B4A3-0AA4C9766AE7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>In this column, enter the baseline value for "Vaccination rate" if none of the programs reach this parameter (e.g., if the coverage is 0)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{EFE941A4-F06A-4505-85AD-B00A1C24F063}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>In this column, enter the baseline value for "Vaccination rate" if none of the programs reach this parameter (e.g., if the coverage is 0)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{7FA8873B-6DBA-4FAE-9737-C2D3243A80CD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>In this column, enter the baseline value for "Vaccination rate" if none of the programs reach this parameter (e.g., if the coverage is 0)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="26">
   <si>
     <t>Targeted to (populations)</t>
   </si>
@@ -30,12 +79,6 @@
     <t>Targeted to (compartments)</t>
   </si>
   <si>
-    <t>Short name</t>
-  </si>
-  <si>
-    <t>Long name</t>
-  </si>
-  <si>
     <t>Adults</t>
   </si>
   <si>
@@ -51,12 +94,6 @@
     <t>Capacity constraints</t>
   </si>
   <si>
-    <t>Value for a person covered by this program alone:</t>
-  </si>
-  <si>
-    <t>Value if none of the programs listed here are targeting this parameter</t>
-  </si>
-  <si>
     <t>Testing - pharmacies</t>
   </si>
   <si>
@@ -103,6 +140,15 @@
   </si>
   <si>
     <t>Treated</t>
+  </si>
+  <si>
+    <t>Display name</t>
+  </si>
+  <si>
+    <t>Abbreviation</t>
+  </si>
+  <si>
+    <t>Baseline value</t>
   </si>
 </sst>
 </file>
@@ -110,9 +156,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +180,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -176,11 +228,10 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -548,159 +599,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" customWidth="1"/>
-    <col min="5" max="5" width="1.83203125" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="1.5" customWidth="1"/>
-    <col min="8" max="9" width="16.6640625" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="1.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.42578125" customWidth="1"/>
+    <col min="6" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="F1" s="8" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="4">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="5">
+      <c r="E3" s="2"/>
+      <c r="F3" s="4">
         <v>1</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="5">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5">
+      <c r="E4" s="2"/>
+      <c r="F4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="5">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="4">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5">
+      <c r="E5" s="2"/>
+      <c r="F5" s="4">
         <v>1</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="5">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="4">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="5">
+      <c r="E6" s="2"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G12" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -709,497 +747,547 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D2" s="6">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="str">
+        <f>'Program targeting'!$A$3</f>
+        <v>Testing - pharmacies</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5">
         <v>2015</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E1" s="5">
         <v>2016</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F1" s="5">
         <v>2017</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G1" s="5">
         <v>2018</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="str">
-        <f>'Program targeting'!$C$3</f>
-        <v>Testing - pharmacies</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="9">
+        <v>50000</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="10">
-        <v>50000</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="str">
-        <f>'Program targeting'!$C$3</f>
-        <v>Testing - pharmacies</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="str">
-        <f>'Program targeting'!$C$3</f>
-        <v>Testing - pharmacies</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="10">
+      <c r="B3" s="4"/>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="9">
         <f>5</f>
         <v>5</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="str">
-        <f>'Program targeting'!$C$3</f>
-        <v>Testing - pharmacies</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="10">
-        <f>E3/E5*5%</f>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="9">
+        <f>E2/E4*5%</f>
         <v>500</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="str">
-        <f>'Program targeting'!$C$4</f>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="str">
+        <f>'Program targeting'!$A$4</f>
         <v>Testing - clinics</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2015</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2016</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2017</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="9">
+        <v>100000</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="10">
-        <v>100000</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="str">
-        <f>'Program targeting'!$C$4</f>
-        <v>Testing - clinics</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="str">
-        <f>'Program targeting'!$C$4</f>
-        <v>Testing - clinics</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="10">
+      <c r="B9" s="4"/>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="9">
         <f>20</f>
         <v>20</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="str">
-        <f>'Program targeting'!$C$4</f>
-        <v>Testing - clinics</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="10">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="9">
         <f>E8/E10*4%</f>
         <v>200</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="str">
-        <f>'Program targeting'!$C$5</f>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="str">
+        <f>'Program targeting'!$A$5</f>
         <v>Testing - outreach</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2015</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2016</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2017</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="9">
+        <v>30000</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="10">
-        <v>30000</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="str">
-        <f>'Program targeting'!$C$5</f>
-        <v>Testing - outreach</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="str">
-        <f>'Program targeting'!$C$5</f>
-        <v>Testing - outreach</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="10">
+      <c r="B15" s="4"/>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="9">
         <f>15</f>
         <v>15</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="str">
-        <f>'Program targeting'!$C$5</f>
-        <v>Testing - outreach</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="10">
-        <f>E13/E15*15%</f>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="9">
+        <f>E14/E16*15%</f>
         <v>300</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="str">
-        <f>'Program targeting'!$C$6</f>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="str">
+        <f>'Program targeting'!$A$6</f>
         <v>Adherence</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5">
+        <v>2015</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2016</v>
+      </c>
+      <c r="F19" s="5">
+        <v>2017</v>
+      </c>
+      <c r="G19" s="5">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="9">
+        <v>20000</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="10">
-        <v>20000</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="str">
-        <f>'Program targeting'!$C$6</f>
-        <v>Adherence</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="4" t="str">
-        <f>'Program targeting'!$C$6</f>
-        <v>Adherence</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="10">
+      <c r="B21" s="4"/>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="9">
         <v>25</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="4" t="str">
-        <f>'Program targeting'!$C$6</f>
-        <v>Adherence</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="10">
-        <f>E18/E20</f>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="9">
+        <f>E20/E22</f>
         <v>800</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="7"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="E5:E6 E10:E11 E15:E16 E21" unlockedFormula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" customWidth="1"/>
-    <col min="10" max="11" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="H1" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="90" x14ac:dyDescent="0.2">
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="6" t="s">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="5" t="str">
+        <f>'Program targeting'!$A$3</f>
+        <v>Testing - pharmacies</v>
+      </c>
+      <c r="G1" s="5" t="str">
+        <f>'Program targeting'!$A$4</f>
+        <v>Testing - clinics</v>
+      </c>
+      <c r="H1" s="5" t="str">
+        <f>'Program targeting'!$A$5</f>
+        <v>Testing - outreach</v>
+      </c>
+      <c r="I1" s="5" t="str">
+        <f>'Program targeting'!$A$6</f>
+        <v>Adherence</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="8">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="6" t="str">
-        <f>'Program targeting'!$C$3</f>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5" t="str">
+        <f>'Program targeting'!$A$3</f>
         <v>Testing - pharmacies</v>
       </c>
-      <c r="I2" s="6" t="str">
-        <f>'Program targeting'!$C$4</f>
+      <c r="G4" s="5" t="str">
+        <f>'Program targeting'!$A$4</f>
         <v>Testing - clinics</v>
       </c>
-      <c r="J2" s="6" t="str">
-        <f>'Program targeting'!$C$5</f>
+      <c r="H4" s="5" t="str">
+        <f>'Program targeting'!$A$5</f>
         <v>Testing - outreach</v>
       </c>
-      <c r="K2" s="6" t="str">
-        <f>'Program targeting'!$C$6</f>
+      <c r="I4" s="5" t="str">
+        <f>'Program targeting'!$A$6</f>
         <v>Adherence</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="9">
-        <v>1</v>
-      </c>
-      <c r="I3" s="9">
-        <v>1</v>
-      </c>
-      <c r="J3" s="9">
-        <v>1</v>
-      </c>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="9">
+      <c r="E5" s="1"/>
+      <c r="F5" s="8">
         <v>0.2</v>
       </c>
-      <c r="I4" s="9">
+      <c r="G5" s="8">
         <v>0.9</v>
       </c>
-      <c r="J4" s="9">
+      <c r="H5" s="8">
         <v>0.7</v>
       </c>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="9">
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5" t="str">
+        <f>'Program targeting'!$A$3</f>
+        <v>Testing - pharmacies</v>
+      </c>
+      <c r="G7" s="5" t="str">
+        <f>'Program targeting'!$A$4</f>
+        <v>Testing - clinics</v>
+      </c>
+      <c r="H7" s="5" t="str">
+        <f>'Program targeting'!$A$5</f>
+        <v>Testing - outreach</v>
+      </c>
+      <c r="I7" s="5" t="str">
+        <f>'Program targeting'!$A$6</f>
+        <v>Adherence</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="8">
         <v>0.2</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="9">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="8">
         <v>0.05</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F5" xr:uid="{ACB0C04B-E39A-5347-B296-6F66082678C8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D5 D8" xr:uid="{ACB0C04B-E39A-5347-B296-6F66082678C8}">
       <formula1>"Synergistic,best"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5" xr:uid="{5080D0A5-2C98-474F-963B-3F05F551B4E3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5 C8" xr:uid="{5080D0A5-2C98-474F-963B-3F05F551B4E3}">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/tests/databooks/progbook_udt.xlsx
+++ b/tests/databooks/progbook_udt.xlsx
@@ -1,27 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\databooks\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F187ACF4-29D7-4F42-8F61-9633B5D91410}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
     <sheet name="Spending data" sheetId="2" r:id="rId2"/>
     <sheet name="Program effects" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -34,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -65,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="29">
   <si>
     <t>Targeted to (populations)</t>
   </si>
@@ -149,13 +155,16 @@
   </si>
   <si>
     <t>Loss-to-follow-up rate</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,9 +249,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -264,26 +272,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF18C1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
+  <dxfs count="64">
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
@@ -291,8 +280,425 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF18C1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -339,7 +745,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -371,9 +777,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -405,6 +829,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -580,305 +1022,259 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="1" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="5" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>9</v>
+      <c r="G6" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="9" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="10" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="17" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="18" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="0" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="25" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="26" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="4" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="11" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="12" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="19" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="20" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="0" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="27" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="28" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="6" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="13" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="14" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="0" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="21" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="22" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="29" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="30" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="8" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="15" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="16" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="0" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="23" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="24" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="0" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="16">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:G6 C3:C6" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -887,12 +1283,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
@@ -900,476 +1296,476 @@
     <col min="4" max="4" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5">
         <v>2015</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="5">
         <v>2016</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="5">
         <v>2017</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="5">
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7">
         <v>50000</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="5" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7">
         <v>5</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="5" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7">
         <v>500</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="6" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
         <v>2015</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>2016</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>2017</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="5" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7">
         <v>100000</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="3" t="s">
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="5" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="3" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="5" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7">
         <v>20</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="3" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="5" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7">
         <v>200</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="6" t="s">
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5">
         <v>2015</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>2016</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>2017</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="5" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7">
         <v>30000</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="3" t="s">
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="5" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="3" t="s">
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="5" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8">
+      <c r="E16" s="7"/>
+      <c r="F16" s="7">
         <v>15</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="3" t="s">
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="5" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7">
         <v>300</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="6" t="s">
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5">
         <v>2015</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>2016</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>2017</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="5" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8">
+      <c r="E20" s="7"/>
+      <c r="F20" s="7">
         <v>20000</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="3" t="s">
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="5" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="3" t="s">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="5" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8">
+      <c r="E22" s="7"/>
+      <c r="F22" s="7">
         <v>25</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="3" t="s">
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="5" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7">
         <v>800</v>
       </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="2" priority="13">
+    <cfRule type="expression" dxfId="31" priority="13">
       <formula>COUNTIF(E10:H10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="14">
+    <cfRule type="expression" dxfId="30" priority="14">
       <formula>AND(COUNTIF(E10:H10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="2" priority="15">
+    <cfRule type="expression" dxfId="29" priority="15">
       <formula>COUNTIF(E11:H11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="16">
+    <cfRule type="expression" dxfId="28" priority="16">
       <formula>AND(COUNTIF(E11:H11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="2" priority="17">
+    <cfRule type="expression" dxfId="27" priority="17">
       <formula>COUNTIF(E14:H14,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="18">
+    <cfRule type="expression" dxfId="26" priority="18">
       <formula>AND(COUNTIF(E14:H14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="2" priority="19">
+    <cfRule type="expression" dxfId="25" priority="19">
       <formula>COUNTIF(E15:H15,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="20">
+    <cfRule type="expression" dxfId="24" priority="20">
       <formula>AND(COUNTIF(E15:H15,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="2" priority="21">
+    <cfRule type="expression" dxfId="23" priority="21">
       <formula>COUNTIF(E16:H16,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="22">
+    <cfRule type="expression" dxfId="22" priority="22">
       <formula>AND(COUNTIF(E16:H16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="2" priority="23">
+    <cfRule type="expression" dxfId="21" priority="23">
       <formula>COUNTIF(E17:H17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="24">
+    <cfRule type="expression" dxfId="20" priority="24">
       <formula>AND(COUNTIF(E17:H17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="19" priority="1">
       <formula>COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>AND(COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="2" priority="25">
+    <cfRule type="expression" dxfId="17" priority="25">
       <formula>COUNTIF(E20:H20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="26">
+    <cfRule type="expression" dxfId="16" priority="26">
       <formula>AND(COUNTIF(E20:H20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="2" priority="27">
+    <cfRule type="expression" dxfId="15" priority="27">
       <formula>COUNTIF(E21:H21,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="28">
+    <cfRule type="expression" dxfId="14" priority="28">
       <formula>AND(COUNTIF(E21:H21,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="2" priority="29">
+    <cfRule type="expression" dxfId="13" priority="29">
       <formula>COUNTIF(E22:H22,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="30">
+    <cfRule type="expression" dxfId="12" priority="30">
       <formula>AND(COUNTIF(E22:H22,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="2" priority="31">
+    <cfRule type="expression" dxfId="11" priority="31">
       <formula>COUNTIF(E23:H23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="32">
+    <cfRule type="expression" dxfId="10" priority="32">
       <formula>AND(COUNTIF(E23:H23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>COUNTIF(E3:H3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>AND(COUNTIF(E3:H3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>COUNTIF(E4:H4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>AND(COUNTIF(E4:H4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>COUNTIF(E5:H5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>AND(COUNTIF(E5:H5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="3" priority="9">
       <formula>COUNTIF(E8:H8,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="10">
+    <cfRule type="expression" dxfId="2" priority="10">
       <formula>AND(COUNTIF(E8:H8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="2" priority="11">
+    <cfRule type="expression" dxfId="1" priority="11">
       <formula>COUNTIF(E9:H9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="12">
+    <cfRule type="expression" dxfId="0" priority="12">
       <formula>AND(COUNTIF(E9:H9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1378,215 +1774,202 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:I5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="2" max="5" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="23.7109375" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" customWidth="1"/>
     <col min="9" max="9" width="21.5703125" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="3" t="str">
+      <c r="G1" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
         <v>Testing - pharmacies</v>
       </c>
-      <c r="H1" s="3" t="str">
+      <c r="H1" s="2" t="str">
         <f>'Program targeting'!$B$4</f>
         <v>Testing - clinics</v>
       </c>
-      <c r="I1" s="3" t="str">
+      <c r="I1" s="2" t="str">
         <f>'Program targeting'!$B$5</f>
         <v>Testing - outreach</v>
       </c>
-      <c r="J1" s="3" t="str">
+      <c r="J1" s="2" t="str">
         <f>'Program targeting'!$B$6</f>
         <v>Adherence</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="G2" s="8">
+      <c r="E2" s="6"/>
+      <c r="G2" s="7">
         <v>1</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>1</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>1</v>
       </c>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="2" t="s">
+      <c r="J2" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="3" t="str">
+      <c r="G4" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
         <v>Testing - pharmacies</v>
       </c>
-      <c r="H4" s="3" t="str">
+      <c r="H4" s="2" t="str">
         <f>'Program targeting'!$B$4</f>
         <v>Testing - clinics</v>
       </c>
-      <c r="I4" s="3" t="str">
+      <c r="I4" s="2" t="str">
         <f>'Program targeting'!$B$5</f>
         <v>Testing - outreach</v>
       </c>
-      <c r="J4" s="3" t="str">
+      <c r="J4" s="2" t="str">
         <f>'Program targeting'!$B$6</f>
         <v>Adherence</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>0</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="G5" s="8">
+      <c r="E5" s="6"/>
+      <c r="G5" s="7">
         <v>0.2</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>0.9</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>0.7</v>
       </c>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="2" t="s">
+      <c r="J5" s="6"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="3" t="str">
+      <c r="G7" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
         <v>Testing - pharmacies</v>
       </c>
-      <c r="H7" s="3" t="str">
+      <c r="H7" s="2" t="str">
         <f>'Program targeting'!$B$4</f>
         <v>Testing - clinics</v>
       </c>
-      <c r="I7" s="3" t="str">
+      <c r="I7" s="2" t="str">
         <f>'Program targeting'!$B$5</f>
         <v>Testing - outreach</v>
       </c>
-      <c r="J7" s="3" t="str">
+      <c r="J7" s="2" t="str">
         <f>'Program targeting'!$B$6</f>
         <v>Adherence</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>0.2</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8">
+      <c r="E8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7">
         <v>0.05</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C8 C5" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D8 D5" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Synergistic,Best"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/databooks/progbook_udt.xlsx
+++ b/tests/databooks/progbook_udt.xlsx
@@ -15,55 +15,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>In this column, enter the baseline value for "Diagnosis rate" if none of the programs reach this parameter (e.g., if the coverage is 0)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>In this column, enter the baseline value for "Initiation rate" if none of the programs reach this parameter (e.g., if the coverage is 0)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>In this column, enter the baseline value for "Loss-to-follow-up rate" if none of the programs reach this parameter (e.g., if the coverage is 0)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="30">
   <si>
@@ -121,16 +72,16 @@
     <t>OR</t>
   </si>
   <si>
-    <t>Capacity constraints</t>
-  </si>
-  <si>
     <t>Unit cost</t>
   </si>
   <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>Saturation</t>
+  </si>
+  <si>
     <t>Coverage</t>
-  </si>
-  <si>
-    <t>Demand constraint</t>
   </si>
   <si>
     <t>Diagnosis rate</t>
@@ -161,19 +112,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -193,7 +138,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF18C1FF"/>
+        <fgColor rgb="FF98E0FA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,22 +191,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -618,30 +561,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -652,16 +595,16 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -672,16 +615,16 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -692,16 +635,16 @@
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -712,16 +655,16 @@
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -875,404 +818,404 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2">
         <v>2015</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="2">
         <v>2016</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="2">
         <v>2017</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="2">
         <v>2018</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6">
         <v>50000</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6">
+        <v>5</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8">
-        <v>5</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6">
         <v>500</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="3" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2017</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
+        <v>100000</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6">
+        <v>20</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6">
+        <v>200</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2">
         <v>2015</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F15" s="2">
         <v>2016</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G15" s="2">
         <v>2017</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H15" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="3" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8">
-        <v>100000</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="3" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6">
+        <v>30000</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="3" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6">
+        <v>15</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="3" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6">
+        <v>300</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G22" s="2">
+        <v>2017</v>
+      </c>
+      <c r="H22" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6">
+        <v>20000</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6">
+        <v>25</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8">
-        <v>200</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="3" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6">
-        <v>2015</v>
-      </c>
-      <c r="F15" s="6">
-        <v>2016</v>
-      </c>
-      <c r="G15" s="6">
-        <v>2017</v>
-      </c>
-      <c r="H15" s="6">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8">
-        <v>30000</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8">
-        <v>15</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8">
-        <v>300</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6">
-        <v>2015</v>
-      </c>
-      <c r="F22" s="6">
-        <v>2016</v>
-      </c>
-      <c r="G22" s="6">
-        <v>2017</v>
-      </c>
-      <c r="H22" s="6">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8">
-        <v>20000</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8">
-        <v>25</v>
-      </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8">
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6">
         <v>800</v>
       </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C10">
@@ -1459,34 +1402,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="3" t="str">
+      <c r="G1" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
         <v>Testing - pharmacies</v>
       </c>
-      <c r="H1" s="3" t="str">
+      <c r="H1" s="2" t="str">
         <f>'Program targeting'!$B$4</f>
         <v>Testing - clinics</v>
       </c>
-      <c r="I1" s="3" t="str">
+      <c r="I1" s="2" t="str">
         <f>'Program targeting'!$B$5</f>
         <v>Testing - outreach</v>
       </c>
-      <c r="J1" s="3" t="str">
+      <c r="J1" s="2" t="str">
         <f>'Program targeting'!$B$6</f>
         <v>Adherence</v>
       </c>
@@ -1496,56 +1439,56 @@
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="G2" s="8">
+      <c r="E2" s="5"/>
+      <c r="G2" s="6">
         <v>1</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="6">
         <v>1</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="6">
         <v>1</v>
       </c>
-      <c r="J2" s="7"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="3" t="str">
+      <c r="G4" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
         <v>Testing - pharmacies</v>
       </c>
-      <c r="H4" s="3" t="str">
+      <c r="H4" s="2" t="str">
         <f>'Program targeting'!$B$4</f>
         <v>Testing - clinics</v>
       </c>
-      <c r="I4" s="3" t="str">
+      <c r="I4" s="2" t="str">
         <f>'Program targeting'!$B$5</f>
         <v>Testing - outreach</v>
       </c>
-      <c r="J4" s="3" t="str">
+      <c r="J4" s="2" t="str">
         <f>'Program targeting'!$B$6</f>
         <v>Adherence</v>
       </c>
@@ -1555,56 +1498,56 @@
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>0</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="G5" s="8">
+      <c r="E5" s="5"/>
+      <c r="G5" s="6">
         <v>0.2</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="6">
         <v>0.9</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="6">
         <v>0.7</v>
       </c>
-      <c r="J5" s="7"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="3" t="str">
+      <c r="G7" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
         <v>Testing - pharmacies</v>
       </c>
-      <c r="H7" s="3" t="str">
+      <c r="H7" s="2" t="str">
         <f>'Program targeting'!$B$4</f>
         <v>Testing - clinics</v>
       </c>
-      <c r="I7" s="3" t="str">
+      <c r="I7" s="2" t="str">
         <f>'Program targeting'!$B$5</f>
         <v>Testing - outreach</v>
       </c>
-      <c r="J7" s="3" t="str">
+      <c r="J7" s="2" t="str">
         <f>'Program targeting'!$B$6</f>
         <v>Adherence</v>
       </c>
@@ -1614,20 +1557,20 @@
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <v>0.2</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8">
+      <c r="E8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6">
         <v>0.05</v>
       </c>
     </row>
@@ -1749,6 +1692,5 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/tests/databooks/progbook_udt.xlsx
+++ b/tests/databooks/progbook_udt.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C7153A51-F098-D047-8EBC-0217A4CC3A91}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
     <sheet name="Spending data" sheetId="2" r:id="rId2"/>
     <sheet name="Program effects" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -111,8 +117,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,26 +219,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="80">
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
@@ -256,8 +243,705 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -304,7 +988,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -336,9 +1020,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -370,6 +1072,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -545,22 +1265,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="1" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="5" max="7" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,7 +1287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -588,7 +1307,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -608,7 +1327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -628,7 +1347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -648,7 +1367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -670,132 +1389,87 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="9" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="13" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="11" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="15" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="16" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="16">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:G6 C3:C6" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -804,20 +1478,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -841,7 +1517,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -857,7 +1533,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -868,12 +1544,13 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6">
-        <v>5</v>
+        <f>5/0.05</f>
+        <v>100</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -887,7 +1564,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -901,7 +1578,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -917,7 +1594,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -941,7 +1618,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -957,7 +1634,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -968,12 +1645,13 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6">
-        <v>20</v>
+        <f>20/0.04</f>
+        <v>500</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -987,7 +1665,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1001,7 +1679,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -1017,7 +1695,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1041,7 +1719,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1057,7 +1735,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1068,12 +1746,13 @@
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6">
-        <v>15</v>
+        <f>15/0.15</f>
+        <v>100</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -1087,7 +1766,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -1101,7 +1780,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -1117,7 +1796,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -1141,7 +1820,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
@@ -1157,7 +1836,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -1173,7 +1852,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>19</v>
       </c>
@@ -1187,7 +1866,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
@@ -1201,7 +1880,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
@@ -1219,162 +1898,162 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="1" priority="13">
+    <cfRule type="expression" dxfId="63" priority="13">
       <formula>COUNTIF(E10:H10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="14">
+    <cfRule type="expression" dxfId="62" priority="14">
       <formula>AND(COUNTIF(E10:H10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="1" priority="15">
+    <cfRule type="expression" dxfId="61" priority="15">
       <formula>COUNTIF(E11:H11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="16">
+    <cfRule type="expression" dxfId="60" priority="16">
       <formula>AND(COUNTIF(E11:H11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="1" priority="17">
+    <cfRule type="expression" dxfId="59" priority="17">
       <formula>COUNTIF(E12:H12,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="18">
+    <cfRule type="expression" dxfId="58" priority="18">
       <formula>AND(COUNTIF(E12:H12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="1" priority="19">
+    <cfRule type="expression" dxfId="57" priority="19">
       <formula>COUNTIF(E13:H13,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="20">
+    <cfRule type="expression" dxfId="56" priority="20">
       <formula>AND(COUNTIF(E13:H13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="1" priority="21">
+    <cfRule type="expression" dxfId="55" priority="21">
       <formula>COUNTIF(E16:H16,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="22">
+    <cfRule type="expression" dxfId="54" priority="22">
       <formula>AND(COUNTIF(E16:H16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="1" priority="23">
+    <cfRule type="expression" dxfId="53" priority="23">
       <formula>COUNTIF(E17:H17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="24">
+    <cfRule type="expression" dxfId="52" priority="24">
       <formula>AND(COUNTIF(E17:H17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="1" priority="25">
+    <cfRule type="expression" dxfId="51" priority="25">
       <formula>COUNTIF(E18:H18,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="26">
+    <cfRule type="expression" dxfId="50" priority="26">
       <formula>AND(COUNTIF(E18:H18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="1" priority="27">
+    <cfRule type="expression" dxfId="49" priority="27">
       <formula>COUNTIF(E19:H19,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="28">
+    <cfRule type="expression" dxfId="48" priority="28">
       <formula>AND(COUNTIF(E19:H19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="47" priority="1">
       <formula>COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="46" priority="2">
       <formula>AND(COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="1" priority="29">
+    <cfRule type="expression" dxfId="45" priority="29">
       <formula>COUNTIF(E20:H20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="30">
+    <cfRule type="expression" dxfId="44" priority="30">
       <formula>AND(COUNTIF(E20:H20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="1" priority="31">
+    <cfRule type="expression" dxfId="43" priority="31">
       <formula>COUNTIF(E23:H23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="32">
+    <cfRule type="expression" dxfId="42" priority="32">
       <formula>AND(COUNTIF(E23:H23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="1" priority="33">
+    <cfRule type="expression" dxfId="41" priority="33">
       <formula>COUNTIF(E24:H24,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="34">
+    <cfRule type="expression" dxfId="40" priority="34">
       <formula>AND(COUNTIF(E24:H24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="1" priority="35">
+    <cfRule type="expression" dxfId="39" priority="35">
       <formula>COUNTIF(E25:H25,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="36">
+    <cfRule type="expression" dxfId="38" priority="36">
       <formula>AND(COUNTIF(E25:H25,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="1" priority="37">
+    <cfRule type="expression" dxfId="37" priority="37">
       <formula>COUNTIF(E26:H26,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="38">
+    <cfRule type="expression" dxfId="36" priority="38">
       <formula>AND(COUNTIF(E26:H26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="1" priority="39">
+    <cfRule type="expression" dxfId="35" priority="39">
       <formula>COUNTIF(E27:H27,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="40">
+    <cfRule type="expression" dxfId="34" priority="40">
       <formula>AND(COUNTIF(E27:H27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="33" priority="3">
       <formula>COUNTIF(E3:H3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="32" priority="4">
       <formula>AND(COUNTIF(E3:H3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="31" priority="5">
       <formula>COUNTIF(E4:H4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="30" priority="6">
       <formula>AND(COUNTIF(E4:H4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="29" priority="7">
       <formula>COUNTIF(E5:H5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="8">
+    <cfRule type="expression" dxfId="28" priority="8">
       <formula>AND(COUNTIF(E5:H5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="1" priority="9">
+    <cfRule type="expression" dxfId="27" priority="9">
       <formula>COUNTIF(E6:H6,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="10">
+    <cfRule type="expression" dxfId="26" priority="10">
       <formula>AND(COUNTIF(E6:H6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="1" priority="11">
+    <cfRule type="expression" dxfId="25" priority="11">
       <formula>COUNTIF(E9:H9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="24" priority="12">
       <formula>AND(COUNTIF(E9:H9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1383,25 +2062,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" customWidth="1"/>
+    <col min="2" max="5" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.5" customWidth="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1434,7 +2112,7 @@
         <v>Adherence</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
@@ -1460,7 +2138,7 @@
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -1493,7 +2171,7 @@
         <v>Adherence</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
@@ -1519,7 +2197,7 @@
       </c>
       <c r="J5" s="5"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -1552,7 +2230,7 @@
         <v>Adherence</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
@@ -1575,122 +2253,488 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="2" priority="9">
-      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G5)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="10">
-      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="2" priority="17">
-      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G8)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="18">
-      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="2" priority="11">
-      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H5)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="12">
-      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="2" priority="19">
-      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H8)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="20">
-      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="expression" dxfId="2" priority="5">
-      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
-      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="2" priority="13">
-      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I5)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="14">
-      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="2" priority="21">
-      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I8)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="22">
-      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2">
-    <cfRule type="expression" dxfId="2" priority="7">
-      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8">
-      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="2" priority="15">
-      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J5)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="16">
-      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="2" priority="23">
-      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J8)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="24">
-      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C8 C5" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D8 D5" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Synergistic,Best"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{00000000-000E-0000-0200-000001000000}">
+            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="2" id="{00000000-000E-0000-0200-000002000000}">
+            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="9" id="{00000000-000E-0000-0200-000009000000}">
+            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G5)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="10" id="{00000000-000E-0000-0200-00000A000000}">
+            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="17" id="{00000000-000E-0000-0200-000011000000}">
+            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="18" id="{00000000-000E-0000-0200-000012000000}">
+            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="3" id="{00000000-000E-0000-0200-000003000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="4" id="{00000000-000E-0000-0200-000004000000}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="11" id="{00000000-000E-0000-0200-00000B000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H5)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="12" id="{00000000-000E-0000-0200-00000C000000}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="19" id="{00000000-000E-0000-0200-000013000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="20" id="{00000000-000E-0000-0200-000014000000}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="5" id="{00000000-000E-0000-0200-000005000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="6" id="{00000000-000E-0000-0200-000006000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="13" id="{00000000-000E-0000-0200-00000D000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I5)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="14" id="{00000000-000E-0000-0200-00000E000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="21" id="{00000000-000E-0000-0200-000015000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="22" id="{00000000-000E-0000-0200-000016000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="7" id="{00000000-000E-0000-0200-000007000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="8" id="{00000000-000E-0000-0200-000008000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="15" id="{00000000-000E-0000-0200-00000F000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J5)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="16" id="{00000000-000E-0000-0200-000010000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="23" id="{00000000-000E-0000-0200-000017000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="24" id="{00000000-000E-0000-0200-000018000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J8</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/tests/databooks/progbook_udt.xlsx
+++ b/tests/databooks/progbook_udt.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="34">
   <si>
     <t>Targeted to (populations)</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>Additive</t>
-  </si>
-  <si>
-    <t>best</t>
   </si>
   <si>
     <t>Initiation rate</t>
@@ -1563,9 +1560,7 @@
       <c r="C2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="G2" s="6">
         <v>1</v>
@@ -1580,7 +1575,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>28</v>
@@ -1622,9 +1617,7 @@
       <c r="C5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="G5" s="6">
         <v>0.2</v>
@@ -1639,7 +1632,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>28</v>
@@ -1681,9 +1674,7 @@
       <c r="C8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -1693,6 +1684,30 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" dxfId="1" priority="9">
+      <formula>COUNTIF(F2:J2,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="10">
+      <formula>AND(COUNTIF(F2:J2,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="1" priority="19">
+      <formula>COUNTIF(F5:J5,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="20">
+      <formula>AND(COUNTIF(F5:J5,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="1" priority="29">
+      <formula>COUNTIF(F8:J8,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="30">
+      <formula>AND(COUNTIF(F8:J8,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G2">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G2)))</formula>
@@ -1702,18 +1717,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="2" priority="11">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="10">
+    <cfRule type="expression" dxfId="3" priority="12">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="2" priority="17">
+    <cfRule type="expression" dxfId="2" priority="21">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="18">
+    <cfRule type="expression" dxfId="3" priority="22">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1726,18 +1741,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="2" priority="11">
+    <cfRule type="expression" dxfId="2" priority="13">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="12">
+    <cfRule type="expression" dxfId="3" priority="14">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="2" priority="19">
+    <cfRule type="expression" dxfId="2" priority="23">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="20">
+    <cfRule type="expression" dxfId="3" priority="24">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1750,18 +1765,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="2" priority="13">
+    <cfRule type="expression" dxfId="2" priority="15">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="14">
+    <cfRule type="expression" dxfId="3" priority="16">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="2" priority="21">
+    <cfRule type="expression" dxfId="2" priority="25">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="22">
+    <cfRule type="expression" dxfId="3" priority="26">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1774,18 +1789,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="2" priority="15">
+    <cfRule type="expression" dxfId="2" priority="17">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="16">
+    <cfRule type="expression" dxfId="3" priority="18">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="2" priority="23">
+    <cfRule type="expression" dxfId="2" priority="27">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="24">
+    <cfRule type="expression" dxfId="3" priority="28">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tests/databooks/progbook_udt.xlsx
+++ b/tests/databooks/progbook_udt.xlsx
@@ -1469,25 +1469,25 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
       <formula1>"people/year,people"</formula1>
